--- a/data/BOC/FTD/FTDE/UAMVCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UAMVCSB_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UAMVCSB_A" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,155 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>UAMVEXAUS</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
-  </si>
-  <si>
-    <t>UAMVEXBEL</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
-  </si>
-  <si>
-    <t>UAMVEXBRZ</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
-  </si>
-  <si>
-    <t>UAMVEXCAN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
-  </si>
-  <si>
-    <t>UAMVEXCHI</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
-  </si>
-  <si>
-    <t>UAMVEXCHIN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
-  </si>
-  <si>
-    <t>UAMVEXCOL</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
-  </si>
-  <si>
-    <t>UAMVEXFRA</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
-  </si>
-  <si>
-    <t>UAMVEXGER</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
-  </si>
-  <si>
-    <t>UAMVEXHGK</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
-  </si>
-  <si>
-    <t>UAMVEXJAP</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
-  </si>
-  <si>
-    <t>UAMVEXKOR</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
-  </si>
-  <si>
-    <t>UAMVEXKUW</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
-  </si>
-  <si>
-    <t>UAMVEXMEX</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
-  </si>
-  <si>
-    <t>UAMVEXNIG</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
-  </si>
-  <si>
-    <t>UAMVEXRUS</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
-  </si>
-  <si>
-    <t>UAMVEXSAU</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
-  </si>
-  <si>
-    <t>UAMVEXSIN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
-  </si>
-  <si>
-    <t>UAMVEXSOA</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
-  </si>
-  <si>
-    <t>UAMVEXUAE</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
-  </si>
-  <si>
-    <t>UAMVEXUK</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
-  </si>
-  <si>
-    <t>UAMVEXVNZ</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
-  </si>
-  <si>
-    <t>UAMVEXOTC</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>2018</v>
       </c>
@@ -525,16 +376,22 @@
       <c r="D1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXAUS</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>3417</v>
@@ -545,14 +402,18 @@
       <c r="D2" t="n">
         <v>2986</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXBEL</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1219</v>
@@ -563,14 +424,18 @@
       <c r="D3" t="n">
         <v>4106</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXBRZ</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1398</v>
@@ -581,14 +446,18 @@
       <c r="D4" t="n">
         <v>1088</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCAN</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>62180</v>
@@ -599,14 +468,18 @@
       <c r="D5" t="n">
         <v>46144</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCHI</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1200</v>
@@ -617,14 +490,18 @@
       <c r="D6" t="n">
         <v>718</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCHIN</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>10526</v>
@@ -635,14 +512,18 @@
       <c r="D7" t="n">
         <v>9390</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCOL</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>602</v>
@@ -653,14 +534,18 @@
       <c r="D8" t="n">
         <v>349</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXFRA</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>666</v>
@@ -671,14 +556,18 @@
       <c r="D9" t="n">
         <v>444</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXGER</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>8432</v>
@@ -689,14 +578,18 @@
       <c r="D10" t="n">
         <v>8616</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXHGK</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>659</v>
@@ -707,14 +600,18 @@
       <c r="D11" t="n">
         <v>791</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXJAP</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>2492</v>
@@ -725,14 +622,18 @@
       <c r="D12" t="n">
         <v>1939</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXKOR</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>2620</v>
@@ -743,14 +644,18 @@
       <c r="D13" t="n">
         <v>3173</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXKUW</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>867</v>
@@ -761,14 +666,18 @@
       <c r="D14" t="n">
         <v>589</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXMEX</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>36857</v>
@@ -779,14 +688,18 @@
       <c r="D15" t="n">
         <v>27319</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXNIG</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>851</v>
@@ -797,14 +710,18 @@
       <c r="D16" t="n">
         <v>1065</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXRUS</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>847</v>
@@ -815,14 +732,18 @@
       <c r="D17" t="n">
         <v>669</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSAU</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>2122</v>
@@ -833,14 +754,18 @@
       <c r="D18" t="n">
         <v>1601</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSIN</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>424</v>
@@ -851,14 +776,18 @@
       <c r="D19" t="n">
         <v>329</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSOA</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>836</v>
@@ -869,14 +798,18 @@
       <c r="D20" t="n">
         <v>658</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXUAE</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>2933</v>
@@ -887,14 +820,18 @@
       <c r="D21" t="n">
         <v>2109</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXUK</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>3533</v>
@@ -905,14 +842,18 @@
       <c r="D22" t="n">
         <v>2536</v>
       </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXVNZ</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>89</v>
@@ -923,14 +864,18 @@
       <c r="D23" t="n">
         <v>90</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXOTC</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>17427</v>
@@ -941,8 +886,10 @@
       <c r="D24" t="n">
         <v>14500</v>
       </c>
-      <c r="E24" t="s">
-        <v>47</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>134</v>

--- a/data/BOC/FTD/FTDE/UAMVCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UAMVCSB_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,2860 @@
         <v>134</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXAUS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1697</v>
+      </c>
+      <c r="D25" t="n">
+        <v>884</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Australia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXBEL</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>633</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4930</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3639</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Belgium</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXBRZ</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>130</v>
+      </c>
+      <c r="C27" t="n">
+        <v>144</v>
+      </c>
+      <c r="D27" t="n">
+        <v>116</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXCAN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14379</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13648</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10511</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Canada</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXCHI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>450</v>
+      </c>
+      <c r="C29" t="n">
+        <v>233</v>
+      </c>
+      <c r="D29" t="n">
+        <v>93</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Chile</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXCHIN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6668</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7231</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  China</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXCOL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>193</v>
+      </c>
+      <c r="C31" t="n">
+        <v>192</v>
+      </c>
+      <c r="D31" t="n">
+        <v>132</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Colombia</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXFRA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>231</v>
+      </c>
+      <c r="C32" t="n">
+        <v>206</v>
+      </c>
+      <c r="D32" t="n">
+        <v>149</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  France</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXGER</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5838</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7041</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6804</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Germany</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXHGK</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" t="n">
+        <v>143</v>
+      </c>
+      <c r="D34" t="n">
+        <v>175</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Hong Kong</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXJAP</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>611</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1054</v>
+      </c>
+      <c r="D35" t="n">
+        <v>754</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Japan</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXKOR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2429</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXKUW</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>626</v>
+      </c>
+      <c r="C37" t="n">
+        <v>598</v>
+      </c>
+      <c r="D37" t="n">
+        <v>353</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Kuwait</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXMEX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3025</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1602</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXNIG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>626</v>
+      </c>
+      <c r="C39" t="n">
+        <v>666</v>
+      </c>
+      <c r="D39" t="n">
+        <v>701</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Nigeria</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXRUS</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>271</v>
+      </c>
+      <c r="C40" t="n">
+        <v>246</v>
+      </c>
+      <c r="D40" t="n">
+        <v>106</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Russia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXSAU</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1281</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXSIN</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>38</v>
+      </c>
+      <c r="C42" t="n">
+        <v>55</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Singapore</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXSOA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>74</v>
+      </c>
+      <c r="C43" t="n">
+        <v>94</v>
+      </c>
+      <c r="D43" t="n">
+        <v>48</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXUAE</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2068</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1407</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXUK</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1601</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXVNZ</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>31</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46</v>
+      </c>
+      <c r="D46" t="n">
+        <v>37</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Venezuela</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>UPSCEXOTC</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7994</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7637</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXAUS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>712</v>
+      </c>
+      <c r="C48" t="n">
+        <v>677</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Australia</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXBEL</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>67</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Belgium</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXBRZ</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>81</v>
+      </c>
+      <c r="C50" t="n">
+        <v>90</v>
+      </c>
+      <c r="D50" t="n">
+        <v>99</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXCAN</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17208</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19362</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13906</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Canada</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXCHI</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>396</v>
+      </c>
+      <c r="C52" t="n">
+        <v>408</v>
+      </c>
+      <c r="D52" t="n">
+        <v>314</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Chile</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXCHIN</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>254</v>
+      </c>
+      <c r="C53" t="n">
+        <v>302</v>
+      </c>
+      <c r="D53" t="n">
+        <v>106</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  China</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXCOL</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>112</v>
+      </c>
+      <c r="C54" t="n">
+        <v>157</v>
+      </c>
+      <c r="D54" t="n">
+        <v>45</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Colombia</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXFRA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>39</v>
+      </c>
+      <c r="C55" t="n">
+        <v>34</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  France</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXGER</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>101</v>
+      </c>
+      <c r="C56" t="n">
+        <v>106</v>
+      </c>
+      <c r="D56" t="n">
+        <v>77</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Germany</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXHGK</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Hong Kong</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXJAP</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>46</v>
+      </c>
+      <c r="C58" t="n">
+        <v>43</v>
+      </c>
+      <c r="D58" t="n">
+        <v>74</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Japan</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXKOR</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>34</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98</v>
+      </c>
+      <c r="D59" t="n">
+        <v>166</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXKUW</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>193</v>
+      </c>
+      <c r="C60" t="n">
+        <v>276</v>
+      </c>
+      <c r="D60" t="n">
+        <v>188</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Kuwait</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXMEX</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D61" t="n">
+        <v>892</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXNIG</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>83</v>
+      </c>
+      <c r="C62" t="n">
+        <v>105</v>
+      </c>
+      <c r="D62" t="n">
+        <v>190</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Nigeria</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXRUS</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>156</v>
+      </c>
+      <c r="C63" t="n">
+        <v>69</v>
+      </c>
+      <c r="D63" t="n">
+        <v>99</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Russia</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXSAU</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>193</v>
+      </c>
+      <c r="C64" t="n">
+        <v>216</v>
+      </c>
+      <c r="D64" t="n">
+        <v>144</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXSIN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Singapore</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXSOA</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>109</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>45</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXUAE</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>442</v>
+      </c>
+      <c r="C67" t="n">
+        <v>264</v>
+      </c>
+      <c r="D67" t="n">
+        <v>156</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXUK</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>50</v>
+      </c>
+      <c r="C68" t="n">
+        <v>53</v>
+      </c>
+      <c r="D68" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXVNZ</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>14</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Venezuela</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>UTBVEXOTC</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXAUS</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1033</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Australia</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXBEL</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>511</v>
+      </c>
+      <c r="C72" t="n">
+        <v>576</v>
+      </c>
+      <c r="D72" t="n">
+        <v>400</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Belgium</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXBRZ</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D73" t="n">
+        <v>872</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXCAN</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>30592</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29223</v>
+      </c>
+      <c r="D74" t="n">
+        <v>21728</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Canada</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXCHI</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>354</v>
+      </c>
+      <c r="C75" t="n">
+        <v>388</v>
+      </c>
+      <c r="D75" t="n">
+        <v>311</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Chile</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXCHIN</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2522</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3195</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  China</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXCOL</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>297</v>
+      </c>
+      <c r="C77" t="n">
+        <v>265</v>
+      </c>
+      <c r="D77" t="n">
+        <v>172</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Colombia</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXFRA</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>396</v>
+      </c>
+      <c r="C78" t="n">
+        <v>409</v>
+      </c>
+      <c r="D78" t="n">
+        <v>280</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  France</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXGER</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Germany</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXHGK</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>593</v>
+      </c>
+      <c r="C80" t="n">
+        <v>508</v>
+      </c>
+      <c r="D80" t="n">
+        <v>614</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Hong Kong</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXJAP</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1836</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1434</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Japan</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXKOR</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>895</v>
+      </c>
+      <c r="C82" t="n">
+        <v>698</v>
+      </c>
+      <c r="D82" t="n">
+        <v>577</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXKUW</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>48</v>
+      </c>
+      <c r="C83" t="n">
+        <v>115</v>
+      </c>
+      <c r="D83" t="n">
+        <v>48</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Kuwait</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXMEX</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>32605</v>
+      </c>
+      <c r="C84" t="n">
+        <v>33190</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24824</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXNIG</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>142</v>
+      </c>
+      <c r="C85" t="n">
+        <v>170</v>
+      </c>
+      <c r="D85" t="n">
+        <v>175</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Nigeria</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXRUS</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>419</v>
+      </c>
+      <c r="C86" t="n">
+        <v>453</v>
+      </c>
+      <c r="D86" t="n">
+        <v>464</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Russia</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXSAU</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>204</v>
+      </c>
+      <c r="C87" t="n">
+        <v>201</v>
+      </c>
+      <c r="D87" t="n">
+        <v>175</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXSIN</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>377</v>
+      </c>
+      <c r="C88" t="n">
+        <v>353</v>
+      </c>
+      <c r="D88" t="n">
+        <v>288</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Singapore</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXSOA</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>653</v>
+      </c>
+      <c r="C89" t="n">
+        <v>690</v>
+      </c>
+      <c r="D89" t="n">
+        <v>565</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXUAE</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>565</v>
+      </c>
+      <c r="C90" t="n">
+        <v>598</v>
+      </c>
+      <c r="D90" t="n">
+        <v>547</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXUK</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D91" t="n">
+        <v>987</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXVNZ</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>44</v>
+      </c>
+      <c r="C92" t="n">
+        <v>61</v>
+      </c>
+      <c r="D92" t="n">
+        <v>51</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Venezuela</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>UPAREXOTC</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7863</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7393</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Total parts,  Exports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMAST</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2585</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2361</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Austria</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMBRZ</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1309</v>
+      </c>
+      <c r="D95" t="n">
+        <v>989</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMCAN</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C96" t="n">
+        <v>59690</v>
+      </c>
+      <c r="D96" t="n">
+        <v>45554</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Canada</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMCHIN</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>22426</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17090</v>
+      </c>
+      <c r="D97" t="n">
+        <v>14128</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  China</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMGER</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>28703</v>
+      </c>
+      <c r="C98" t="n">
+        <v>27387</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20741</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Germany</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMITA</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6222</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4875</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4722</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Italy</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMJAP</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>56356</v>
+      </c>
+      <c r="C100" t="n">
+        <v>54093</v>
+      </c>
+      <c r="D100" t="n">
+        <v>44196</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Japan</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMKOR</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>22145</v>
+      </c>
+      <c r="C101" t="n">
+        <v>24955</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24272</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMMEX</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>127521</v>
+      </c>
+      <c r="C102" t="n">
+        <v>136225</v>
+      </c>
+      <c r="D102" t="n">
+        <v>112858</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMSOA</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>814</v>
+      </c>
+      <c r="C103" t="n">
+        <v>733</v>
+      </c>
+      <c r="D103" t="n">
+        <v>840</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMSWE</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2122</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2724</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2802</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Sweden</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMTAI</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3471</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3601</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3563</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Taiwan</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMTHAI</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3729</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4596</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4469</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Thailand</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMUK</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>11669</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7644</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>UAMVIMOTC</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>24566</v>
+      </c>
+      <c r="C108" t="n">
+        <v>25396</v>
+      </c>
+      <c r="D108" t="n">
+        <v>22412</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Imports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMAST</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Austria</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMBRZ</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMCAN</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>37470</v>
+      </c>
+      <c r="C111" t="n">
+        <v>37182</v>
+      </c>
+      <c r="D111" t="n">
+        <v>28955</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Canada</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMCHIN</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1603</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  China</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMGER</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>18611</v>
+      </c>
+      <c r="C113" t="n">
+        <v>17812</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12389</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Germany</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMITA</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4576</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3214</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Italy</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMJAP</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>40375</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39128</v>
+      </c>
+      <c r="D115" t="n">
+        <v>32271</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Japan</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMKOR</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>13823</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15903</v>
+      </c>
+      <c r="D116" t="n">
+        <v>16240</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMMEX</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>34293</v>
+      </c>
+      <c r="C117" t="n">
+        <v>36977</v>
+      </c>
+      <c r="D117" t="n">
+        <v>28871</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMSOA</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>465</v>
+      </c>
+      <c r="C118" t="n">
+        <v>357</v>
+      </c>
+      <c r="D118" t="n">
+        <v>535</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMSWE</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2052</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2376</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Sweden</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMTAI</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>86</v>
+      </c>
+      <c r="C120" t="n">
+        <v>67</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Taiwan</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMTHAI</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>232</v>
+      </c>
+      <c r="C121" t="n">
+        <v>287</v>
+      </c>
+      <c r="D121" t="n">
+        <v>208</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Thailand</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMUK</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>9658</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9787</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6235</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>UPSCIMOTC</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>9232</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9229</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8084</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Imports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMAST</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13</v>
+      </c>
+      <c r="D124" t="n">
+        <v>32</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Austria</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMBRZ</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>69</v>
+      </c>
+      <c r="C125" t="n">
+        <v>61</v>
+      </c>
+      <c r="D125" t="n">
+        <v>58</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMCAN</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5301</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5924</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2728</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Canada</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMCHIN</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>585</v>
+      </c>
+      <c r="C127" t="n">
+        <v>313</v>
+      </c>
+      <c r="D127" t="n">
+        <v>312</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  China</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMGER</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>453</v>
+      </c>
+      <c r="C128" t="n">
+        <v>377</v>
+      </c>
+      <c r="D128" t="n">
+        <v>277</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Germany</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMITA</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Italy</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMJAP</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>873</v>
+      </c>
+      <c r="C130" t="n">
+        <v>945</v>
+      </c>
+      <c r="D130" t="n">
+        <v>462</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Japan</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMKOR</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMMEX</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>33597</v>
+      </c>
+      <c r="C132" t="n">
+        <v>38059</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30945</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMSOA</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>(-)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMSWE</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>201</v>
+      </c>
+      <c r="C134" t="n">
+        <v>215</v>
+      </c>
+      <c r="D134" t="n">
+        <v>154</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Sweden</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMTAI</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14</v>
+      </c>
+      <c r="D135" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Taiwan</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMTHAI</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>16</v>
+      </c>
+      <c r="C136" t="n">
+        <v>8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Thailand</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMUK</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>536</v>
+      </c>
+      <c r="C137" t="n">
+        <v>665</v>
+      </c>
+      <c r="D137" t="n">
+        <v>302</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>UTBVIMOTC</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C138" t="n">
+        <v>965</v>
+      </c>
+      <c r="D138" t="n">
+        <v>824</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Imports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMAST</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Austria</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMBRZ</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D140" t="n">
+        <v>927</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Brazil</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMCAN</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>16928</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16585</v>
+      </c>
+      <c r="D141" t="n">
+        <v>13872</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Canada</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMCHIN</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>19915</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15175</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12366</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  China</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMGER</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>9639</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9199</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8074</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Germany</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMITA</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1427</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Italy</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMJAP</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>15108</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14020</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11463</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Japan</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMKOR</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>8320</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9051</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8023</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMMEX</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>59632</v>
+      </c>
+      <c r="C147" t="n">
+        <v>61190</v>
+      </c>
+      <c r="D147" t="n">
+        <v>53041</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Mexico</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMSOA</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>341</v>
+      </c>
+      <c r="C148" t="n">
+        <v>362</v>
+      </c>
+      <c r="D148" t="n">
+        <v>304</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  South Africa</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMSWE</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>349</v>
+      </c>
+      <c r="C149" t="n">
+        <v>457</v>
+      </c>
+      <c r="D149" t="n">
+        <v>273</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Sweden</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMTAI</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3375</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3473</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Taiwan</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMTHAI</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3481</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4301</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4259</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Thailand</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMUK</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1437</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>UPARIMOTC</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>14242</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15202</v>
+      </c>
+      <c r="D153" t="n">
+        <v>13504</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Total parts,  Imports,  Other Countries</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
